--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\DToPaSoVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755EB891-24E2-4F11-BDEC-76836FDB46C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757EE0FB-171D-4FFC-B010-AF7FE46B0EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1065" windowWidth="31395" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22485" yWindow="150" windowWidth="21600" windowHeight="22305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1136">
   <si>
     <t>Source:</t>
   </si>
@@ -342,21 +342,9 @@
     <t>DToPaSoVAbIC Domestic Taxes on Production as Share of Value Added by ISIC Code</t>
   </si>
   <si>
-    <t>While OTXS should cover corporate income and related taxes on businesses,</t>
-  </si>
-  <si>
-    <t>it does not appear to include any income taxes on the compensation</t>
-  </si>
-  <si>
-    <t>Accordingly, it is what we need for this variable.</t>
-  </si>
-  <si>
     <t>Domestic Taxes as Share of Value Added</t>
   </si>
   <si>
-    <t>of employees.  (The effective tax rates are far too low.)</t>
-  </si>
-  <si>
     <t>ISIC 20</t>
   </si>
   <si>
@@ -3418,6 +3406,45 @@
   </si>
   <si>
     <t>pharmaceuticals</t>
+  </si>
+  <si>
+    <t>The OECD STAN Database for industrial analysis: Sources and methods</t>
+  </si>
+  <si>
+    <t>Peter Horvát, Colin Webb</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/docserver/ece98fd3-en.pdf</t>
+  </si>
+  <si>
+    <t>OTXS description on page. 24</t>
+  </si>
+  <si>
+    <t>The documentation description of the OTXS variable is:</t>
+  </si>
+  <si>
+    <t>Taxes less subsidies on production (OTXS) consist of taxes payable or subsidies receivable on goods</t>
+  </si>
+  <si>
+    <t>or services produced, and other taxes or subsidies on production, such as those payable on the</t>
+  </si>
+  <si>
+    <t>labour, machinery, buildings or other assets used in production.</t>
+  </si>
+  <si>
+    <t>This does not appear to include income tax on the compensation of employees, paid</t>
+  </si>
+  <si>
+    <t>by employees.  It might include payroll taxes or similar, levied on employers.</t>
+  </si>
+  <si>
+    <t>(The effective tax rates are far too low to include any income taxes.)</t>
+  </si>
+  <si>
+    <t>Therefore, it appears to be what we need for this variable.</t>
+  </si>
+  <si>
+    <t>The OECD's documentation of their STAN model (which produces OECD's input-output tables) is available at:</t>
   </si>
 </sst>
 </file>
@@ -3797,7 +3824,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3989,6 +4016,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4272,9 +4300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4321,12 +4351,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,22 +4366,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,27 +4391,27 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,65 +4460,115 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>101</v>
+      <c r="A36" s="1" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>102</v>
+      <c r="B37" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>105</v>
+      <c r="B38" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>103</v>
+      <c r="B39" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1122</v>
+      <c r="B41" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1124</v>
+      <c r="A44" s="24" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A45" s="24" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="85" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="85" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="85" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="85" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B61" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4496,10 +4576,11 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{08759D76-7BB6-457A-8AB6-5DD1F0937482}"/>
     <hyperlink ref="B20" r:id="rId2" xr:uid="{F3556511-F288-4D2B-B2CA-B58C233BE9A0}"/>
-    <hyperlink ref="A45" r:id="rId3" xr:uid="{EA28878B-6689-4364-850A-8364807961A8}"/>
+    <hyperlink ref="A57" r:id="rId3" xr:uid="{EA28878B-6689-4364-850A-8364807961A8}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{3479BBF0-CD31-4C9C-B161-4B0B2ED671E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5353,89 +5434,89 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="J3" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="L3" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="O3" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="P3" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="S3" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" s="31">
         <v>212</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H4" s="20">
         <v>3254</v>
@@ -5447,7 +5528,7 @@
         <v>3272</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L4" s="32"/>
       <c r="O4" s="30"/>
@@ -5455,17 +5536,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="20">
         <v>20</v>
@@ -5474,7 +5555,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J5" s="4">
         <v>231</v>
@@ -5498,24 +5579,24 @@
         <v>351</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>64800</v>
@@ -5562,13 +5643,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="21">
         <f>D41*10^6</f>
@@ -5622,13 +5703,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22">
@@ -5654,10 +5735,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="30" t="str">
         <f>A9</f>
@@ -5730,7 +5811,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C10" s="30" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
@@ -5803,7 +5884,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5876,7 +5957,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5949,85 +6030,85 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D27" s="43">
         <v>34314</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I27" s="43">
         <v>18238301</v>
@@ -6044,19 +6125,19 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D28" s="43">
         <v>61876</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I28" s="43">
         <v>15898859</v>
@@ -6074,19 +6155,19 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D29" s="43">
         <v>19404</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I29" s="43">
         <v>182283</v>
@@ -6104,19 +6185,19 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D30" s="43">
         <v>28308</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I30" s="43">
         <v>147384</v>
@@ -6134,19 +6215,19 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D31" s="43">
         <v>22098</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I31" s="43">
         <v>34899</v>
@@ -6163,19 +6244,19 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D32" s="43">
         <v>22767</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I32" s="43">
         <v>261774</v>
@@ -6192,19 +6273,19 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D33" s="43">
         <v>36867</v>
       </c>
       <c r="G33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I33" s="43">
         <v>158231</v>
@@ -6221,19 +6302,19 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D34" s="43">
         <v>93695</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I34" s="43">
         <v>49994</v>
@@ -6250,19 +6331,19 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D35" s="43">
         <v>50423</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I35" s="43">
         <v>53550</v>
@@ -6279,19 +6360,19 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D36" s="43">
         <v>36649</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I36" s="43">
         <v>299232</v>
@@ -6308,19 +6389,19 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D37" s="43">
         <v>21437</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I37" s="43">
         <v>694943</v>
@@ -6337,19 +6418,19 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D38" s="43">
         <v>8667</v>
       </c>
       <c r="G38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I38" s="43">
         <v>2129592</v>
@@ -6366,19 +6447,19 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D39" s="43">
         <v>23422</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I39" s="43">
         <v>1183755</v>
@@ -6395,22 +6476,22 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D40" s="43">
         <v>268953</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I40" s="43">
         <v>32485</v>
@@ -6427,22 +6508,22 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D41" s="43">
         <v>40135</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I41" s="43">
         <v>54661</v>
@@ -6459,19 +6540,19 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D42" s="43">
         <v>11643</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I42" s="43">
         <v>60066</v>
@@ -6488,19 +6569,19 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D43" s="43">
         <v>14089</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I43" s="43">
         <v>147361</v>
@@ -6517,19 +6598,19 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D44" s="43">
         <v>19415</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I44" s="43">
         <v>152472</v>
@@ -6546,19 +6627,19 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D45" s="43">
         <v>20908</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I45" s="43">
         <v>267323</v>
@@ -6575,19 +6656,19 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D46" s="43">
         <v>32318</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I46" s="43">
         <v>63631</v>
@@ -6604,19 +6685,19 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D47" s="43">
         <v>88512</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I47" s="43">
         <v>146240</v>
@@ -6633,22 +6714,22 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D48" s="43">
         <v>3124</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I48" s="43">
         <v>149076</v>
@@ -6665,22 +6746,22 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D49" s="43">
         <v>103566</v>
       </c>
       <c r="E49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" t="s">
         <v>246</v>
-      </c>
-      <c r="G49" t="s">
-        <v>248</v>
-      </c>
-      <c r="H49" t="s">
-        <v>250</v>
       </c>
       <c r="I49" s="43">
         <v>29141</v>
@@ -6697,22 +6778,22 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D50" s="43">
         <v>36820</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I50" s="43">
         <v>81299</v>
@@ -6729,22 +6810,22 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D51" s="43">
         <v>749</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I51" s="43">
         <v>945837</v>
@@ -6761,22 +6842,22 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D52" s="43">
         <v>6621</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I52" s="43">
         <v>261724</v>
@@ -6793,22 +6874,22 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D53" s="43">
         <v>1416</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I53" s="43">
         <v>17936</v>
@@ -6825,22 +6906,22 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D54" s="43">
         <v>1101</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I54" s="43">
         <v>9694</v>
@@ -6857,22 +6938,22 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D55" s="43">
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I55" s="43">
         <v>59668</v>
@@ -6889,22 +6970,22 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D56" s="43">
         <v>12770</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H56" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I56" s="43">
         <v>40211</v>
@@ -6921,22 +7002,22 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D57" s="43">
         <v>246810</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I57" s="43">
         <v>145371</v>
@@ -6953,22 +7034,22 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D58" s="43">
         <v>86048</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H58" s="44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I58" s="43">
         <v>332981</v>
@@ -6985,22 +7066,22 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D59" s="43">
         <v>14508</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G59" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I59" s="43">
         <v>78252</v>
@@ -7017,19 +7098,19 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D60" s="43">
         <v>40117</v>
       </c>
       <c r="G60" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I60" s="43">
         <v>1142867</v>
@@ -7046,19 +7127,19 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D61" s="43">
         <v>88209</v>
       </c>
       <c r="G61" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H61" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I61" s="43">
         <v>1020079</v>
@@ -7075,19 +7156,19 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D62" s="43">
         <v>191101</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H62" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I62" s="43">
         <v>565836</v>
@@ -7104,19 +7185,19 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D63" s="43">
         <v>76959</v>
       </c>
       <c r="G63" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H63" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I63" s="43">
         <v>117693</v>
@@ -7133,19 +7214,19 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D64" s="43">
         <v>112928</v>
       </c>
       <c r="G64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H64" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I64" s="43">
         <v>44301</v>
@@ -7162,19 +7243,19 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D65" s="43">
         <v>55962</v>
       </c>
       <c r="G65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I65" s="43">
         <v>15792</v>
@@ -7191,19 +7272,19 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D66" s="43">
         <v>212844</v>
       </c>
       <c r="G66" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I66" s="43">
         <v>149029</v>
@@ -7220,19 +7301,19 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D67" s="43">
         <v>69028</v>
       </c>
       <c r="G67" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H67" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I67" s="43">
         <v>42197</v>
@@ -7249,19 +7330,19 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D68" s="43">
         <v>105415</v>
       </c>
       <c r="G68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I68" s="43">
         <v>36810</v>
@@ -7278,19 +7359,19 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D69" s="43">
         <v>111108</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I69" s="43">
         <v>108074</v>
@@ -7307,19 +7388,19 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D70" s="43">
         <v>209093</v>
       </c>
       <c r="G70" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H70" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I70" s="43">
         <v>51940</v>
@@ -7336,19 +7417,19 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D71" s="43">
         <v>113347</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I71" s="43">
         <v>906938</v>
@@ -7365,19 +7446,19 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D72" s="43">
         <v>29072</v>
       </c>
       <c r="G72" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H72" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I72" s="43">
         <v>223597</v>
@@ -7394,19 +7475,19 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D73" s="43">
         <v>20986</v>
       </c>
       <c r="G73" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I73" s="43">
         <v>87592</v>
@@ -7423,19 +7504,19 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D74" s="43">
         <v>25586</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H74" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I74" s="43">
         <v>426113</v>
@@ -7452,19 +7533,19 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D75" s="43">
         <v>25364</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I75" s="43">
         <v>169636</v>
@@ -7481,22 +7562,22 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D76" s="43">
         <v>8343</v>
       </c>
       <c r="E76" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G76" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I76" s="43">
         <v>3749038</v>
@@ -7513,22 +7594,22 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D77" s="43">
         <v>25886</v>
       </c>
       <c r="E77" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G77" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H77" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I77" s="43">
         <v>1363092</v>
@@ -7545,22 +7626,22 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D78" s="43">
         <v>8215</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G78" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H78" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I78" s="43">
         <v>560763</v>
@@ -7577,22 +7658,22 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D79" s="43">
         <v>27726</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H79" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I79" s="43">
         <v>230878</v>
@@ -7609,22 +7690,22 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D80" s="43">
         <v>6454</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H80" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I80" s="43">
         <v>554081</v>
@@ -7641,22 +7722,22 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D81" s="43">
         <v>11048</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G81" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H81" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I81" s="43">
         <v>17371</v>
@@ -7673,22 +7754,22 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D82" s="43">
         <v>7478</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G82" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H82" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I82" s="43">
         <v>2385946</v>
@@ -7705,22 +7786,22 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D83" s="43">
         <v>5424</v>
       </c>
       <c r="E83" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G83" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H83" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I83" s="43">
         <v>2180002</v>
@@ -7737,22 +7818,22 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D84" s="43">
         <v>4452</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G84" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H84" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I84" s="43">
         <v>205944</v>
@@ -7769,22 +7850,22 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D85" s="43">
         <v>3903</v>
       </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G85" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H85" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I85" s="43">
         <v>2236932</v>
@@ -7801,22 +7882,22 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D86" s="43">
         <v>5966</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G86" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H86" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I86" s="43">
         <v>1348595</v>
@@ -7833,22 +7914,22 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D87" s="43">
         <v>4223</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H87" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I87" s="43">
         <v>238595</v>
@@ -7865,22 +7946,22 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D88" s="43">
         <v>88262</v>
       </c>
       <c r="E88" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G88" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I88" s="43">
         <v>284785</v>
@@ -7897,22 +7978,22 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D89" s="43">
         <v>20810</v>
       </c>
       <c r="E89" t="s">
+        <v>367</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89" t="s">
         <v>371</v>
-      </c>
-      <c r="G89" t="s">
-        <v>373</v>
-      </c>
-      <c r="H89" t="s">
-        <v>375</v>
       </c>
       <c r="I89" s="43">
         <v>825215</v>
@@ -7929,22 +8010,22 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C90" s="49" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D90" s="43">
         <v>6183</v>
       </c>
       <c r="E90" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G90" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H90" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I90" s="43">
         <v>347961</v>
@@ -7961,22 +8042,22 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D91" s="43">
         <v>5743</v>
       </c>
       <c r="E91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H91" t="s">
         <v>378</v>
-      </c>
-      <c r="G91" t="s">
-        <v>380</v>
-      </c>
-      <c r="H91" t="s">
-        <v>382</v>
       </c>
       <c r="I91" s="43">
         <v>540376</v>
@@ -7993,22 +8074,22 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D92" s="43">
         <v>25691</v>
       </c>
       <c r="E92" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G92" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H92" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I92" s="43">
         <v>492465</v>
@@ -8025,22 +8106,22 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D93" s="43">
         <v>10560</v>
       </c>
       <c r="E93" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H93" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I93" s="43">
         <v>47911</v>
@@ -8057,22 +8138,22 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D94" s="43">
         <v>19585</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G94" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H94" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I94" s="43">
         <v>1571003</v>
@@ -8089,22 +8170,22 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D95" s="43">
         <v>18298</v>
       </c>
       <c r="E95" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G95" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H95" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I95" s="43">
         <v>233438</v>
@@ -8121,22 +8202,22 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D96" s="43">
         <v>17948</v>
       </c>
       <c r="E96" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G96" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H96" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I96" s="43">
         <v>1337565</v>
@@ -8153,22 +8234,22 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D97" s="43">
         <v>14034</v>
       </c>
       <c r="E97" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G97" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H97" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I97" s="43">
         <v>644175</v>
@@ -8185,19 +8266,19 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D98" s="43">
         <v>7884</v>
       </c>
       <c r="G98" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H98" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I98" s="43">
         <v>581331</v>
@@ -8214,19 +8295,19 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D99" s="43">
         <v>13425</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H99" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I99" s="43">
         <v>112058</v>
@@ -8243,19 +8324,19 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D100" s="43">
         <v>11837</v>
       </c>
       <c r="G100" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H100" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I100" s="43">
         <v>746773</v>
@@ -8272,19 +8353,19 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D101" s="43">
         <v>10007</v>
       </c>
       <c r="G101" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H101" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I101" s="43">
         <v>193468</v>
@@ -8301,19 +8382,19 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D102" s="43">
         <v>45291</v>
       </c>
       <c r="G102" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H102" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I102" s="43">
         <v>112849</v>
@@ -8330,19 +8411,19 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C103" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D103" s="43">
         <v>40189</v>
       </c>
       <c r="G103" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H103" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I103" s="43">
         <v>80619</v>
@@ -8359,19 +8440,19 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D104" s="43">
         <v>7536</v>
       </c>
       <c r="G104" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H104" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I104" s="43">
         <v>553304</v>
@@ -8388,19 +8469,19 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C105" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D105" s="43">
         <v>9269</v>
       </c>
       <c r="G105" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H105" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I105" s="43">
         <v>157517</v>
@@ -8417,19 +8498,19 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C106" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D106" s="43">
         <v>18380</v>
       </c>
       <c r="G106" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H106" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I106" s="43">
         <v>395787</v>
@@ -8446,19 +8527,19 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D107" s="43">
         <v>8253</v>
       </c>
       <c r="G107" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H107" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I107" s="43">
         <v>391569</v>
@@ -8475,19 +8556,19 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C108" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D108" s="43">
         <v>8828</v>
       </c>
       <c r="G108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H108" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I108" s="43">
         <v>2339442</v>
@@ -8504,19 +8585,19 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D109" s="43">
         <v>39168</v>
       </c>
       <c r="G109" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H109" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I109" s="43">
         <v>731280</v>
@@ -8533,19 +8614,19 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C110" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D110" s="43">
         <v>28288</v>
       </c>
       <c r="G110" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H110" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I110" s="43">
         <v>673658</v>
@@ -8554,7 +8635,7 @@
         <v>409923</v>
       </c>
       <c r="K110" s="43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L110" s="43">
         <v>263735</v>
@@ -8562,19 +8643,19 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D111" s="43">
         <v>27221</v>
       </c>
       <c r="G111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H111" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I111" s="43">
         <v>57621</v>
@@ -8591,19 +8672,19 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D112" s="43">
         <v>4004</v>
       </c>
       <c r="G112" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H112" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I112" s="43">
         <v>1608162</v>
@@ -8620,19 +8701,19 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D113" s="43">
         <v>28050</v>
       </c>
       <c r="G113" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I113" s="43">
         <v>1467317</v>
@@ -8641,7 +8722,7 @@
         <v>1275273</v>
       </c>
       <c r="K113" s="43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L113" s="43">
         <v>192044</v>
@@ -8649,19 +8730,19 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C114" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D114" s="43">
         <v>6997</v>
       </c>
       <c r="G114" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H114" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I114" s="43">
         <v>140845</v>
@@ -8678,34 +8759,34 @@
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C115" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D115" s="43">
         <v>7632</v>
       </c>
       <c r="H115" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I115" s="43"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C116" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D116" s="43">
         <v>13831</v>
       </c>
       <c r="G116" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H116" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I116" s="43">
         <v>3268592</v>
@@ -8713,19 +8794,19 @@
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C117" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D117" s="43">
         <v>15876</v>
       </c>
       <c r="G117" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H117" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I117" s="43">
         <v>12630266</v>
@@ -8733,10 +8814,10 @@
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C118" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D118" s="43">
         <v>30700</v>
@@ -8744,10 +8825,10 @@
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C119" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D119" s="43">
         <v>9198</v>
@@ -8755,10 +8836,10 @@
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C120" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D120" s="43">
         <v>28981</v>
@@ -8766,10 +8847,10 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C121" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D121" s="43">
         <v>21607</v>
@@ -8777,10 +8858,10 @@
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C122" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D122" s="43">
         <v>6176</v>
@@ -8788,10 +8869,10 @@
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C123" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D123" s="43">
         <v>26748</v>
@@ -8799,10 +8880,10 @@
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D124" s="43">
         <v>4893</v>
@@ -8810,10 +8891,10 @@
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C125" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D125" s="43">
         <v>2064</v>
@@ -8821,10 +8902,10 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C126" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D126" s="43">
         <v>21334</v>
@@ -8832,10 +8913,10 @@
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C127" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D127" s="43">
         <v>4558</v>
@@ -8843,10 +8924,10 @@
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C128" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D128" s="43">
         <v>32747</v>
@@ -8854,10 +8935,10 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C129" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D129" s="43">
         <v>6678</v>
@@ -8865,10 +8946,10 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C130" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D130" s="43">
         <v>6497</v>
@@ -8876,10 +8957,10 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C131" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D131" s="43">
         <v>8423</v>
@@ -8887,10 +8968,10 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C132" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D132" s="43">
         <v>8202</v>
@@ -8898,10 +8979,10 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C133" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D133" s="43">
         <v>9125</v>
@@ -8909,10 +8990,10 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C134" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D134" s="43">
         <v>15140</v>
@@ -8920,10 +9001,10 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C135" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D135" s="43">
         <v>3683</v>
@@ -8931,10 +9012,10 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C136" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D136" s="43">
         <v>4321</v>
@@ -8942,10 +9023,10 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C137" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D137" s="43">
         <v>27555</v>
@@ -8953,10 +9034,10 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C138" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D138" s="43">
         <v>10106</v>
@@ -8964,10 +9045,10 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D139" s="43">
         <v>16822</v>
@@ -8975,10 +9056,10 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C140" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D140" s="43">
         <v>27754</v>
@@ -8986,10 +9067,10 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C141" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D141" s="43">
         <v>3250</v>
@@ -8997,10 +9078,10 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C142" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D142" s="43">
         <v>5866</v>
@@ -9008,10 +9089,10 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C143" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D143" s="43">
         <v>2845</v>
@@ -9019,10 +9100,10 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D144" s="43">
         <v>22220</v>
@@ -9030,10 +9111,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C145" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D145" s="43">
         <v>11611</v>
@@ -9041,10 +9122,10 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C146" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D146" s="43">
         <v>12846</v>
@@ -9052,10 +9133,10 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C147" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D147" s="43">
         <v>8291</v>
@@ -9063,10 +9144,10 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C148" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D148" s="43">
         <v>10778</v>
@@ -9074,10 +9155,10 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C149" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D149" s="43">
         <v>11850</v>
@@ -9085,10 +9166,10 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C150" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D150" s="43">
         <v>33887</v>
@@ -9096,10 +9177,10 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C151" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D151" s="43">
         <v>6694</v>
@@ -9107,10 +9188,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C152" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D152" s="43">
         <v>57088</v>
@@ -9118,10 +9199,10 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C153" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D153" s="43">
         <v>20663</v>
@@ -9129,10 +9210,10 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C154" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D154" s="43">
         <v>32586</v>
@@ -9140,10 +9221,10 @@
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C155" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D155" s="43">
         <v>28912</v>
@@ -9151,10 +9232,10 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C156" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D156" s="43">
         <v>47917</v>
@@ -9162,10 +9243,10 @@
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C157" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D157" s="43">
         <v>2618</v>
@@ -9173,10 +9254,10 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C158" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D158" s="43">
         <v>11888</v>
@@ -9184,10 +9265,10 @@
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C159" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D159" s="43">
         <v>5417</v>
@@ -9195,10 +9276,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C160" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D160" s="43">
         <v>11523</v>
@@ -9206,10 +9287,10 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C161" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D161" s="43">
         <v>17491</v>
@@ -9217,10 +9298,10 @@
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C162" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D162" s="43">
         <v>10002</v>
@@ -9228,10 +9309,10 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C163" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D163" s="43">
         <v>12072</v>
@@ -9239,10 +9320,10 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C164" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D164" s="43">
         <v>2914</v>
@@ -9250,10 +9331,10 @@
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C165" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D165" s="43">
         <v>2916</v>
@@ -9261,10 +9342,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C166" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D166" s="43">
         <v>1052</v>
@@ -9272,10 +9353,10 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C167" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D167" s="43">
         <v>11324</v>
@@ -9283,10 +9364,10 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C168" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D168" s="43">
         <v>3539</v>
@@ -9294,10 +9375,10 @@
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C169" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D169" s="43">
         <v>4775</v>
@@ -9305,10 +9386,10 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C170" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D170" s="43">
         <v>3881</v>
@@ -9316,10 +9397,10 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C171" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D171" s="43">
         <v>3862</v>
@@ -9327,10 +9408,10 @@
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C172" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D172" s="43">
         <v>5125</v>
@@ -9338,10 +9419,10 @@
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C173" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D173" s="43">
         <v>5491</v>
@@ -9349,10 +9430,10 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C174" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D174" s="43">
         <v>10506</v>
@@ -9360,10 +9441,10 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C175" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D175" s="43">
         <v>11675</v>
@@ -9371,10 +9452,10 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D176" s="43">
         <v>10352</v>
@@ -9382,10 +9463,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D177" s="43">
         <v>8071</v>
@@ -9393,10 +9474,10 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C178" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D178" s="43">
         <v>3739</v>
@@ -9404,10 +9485,10 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C179" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D179" s="43">
         <v>14491</v>
@@ -9415,10 +9496,10 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C180" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D180" s="43">
         <v>13999</v>
@@ -9426,10 +9507,10 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C181" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D181" s="43">
         <v>3310</v>
@@ -9437,10 +9518,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C182" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D182" s="43">
         <v>10808</v>
@@ -9448,10 +9529,10 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C183" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D183" s="43">
         <v>67427</v>
@@ -9459,10 +9540,10 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C184" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D184" s="43">
         <v>267597</v>
@@ -9470,10 +9551,10 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C185" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D185" s="43">
         <v>35528</v>
@@ -9481,10 +9562,10 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C186" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D186" s="43">
         <v>14072</v>
@@ -9492,10 +9573,10 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D187" s="43">
         <v>10276</v>
@@ -9503,10 +9584,10 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C188" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D188" s="43">
         <v>4256</v>
@@ -9514,10 +9595,10 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C189" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D189" s="43">
         <v>14299</v>
@@ -9525,10 +9606,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C190" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D190" s="43">
         <v>34899</v>
@@ -9536,10 +9617,10 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C191" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D191" s="43">
         <v>25253</v>
@@ -9547,10 +9628,10 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C192" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D192" s="43">
         <v>38361</v>
@@ -9558,10 +9639,10 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C193" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D193" s="43">
         <v>32361</v>
@@ -9569,10 +9650,10 @@
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C194" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D194" s="43">
         <v>37764</v>
@@ -9580,10 +9661,10 @@
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D195" s="43">
         <v>68959</v>
@@ -9591,10 +9672,10 @@
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C196" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D196" s="43">
         <v>26026</v>
@@ -9602,10 +9683,10 @@
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D197" s="43">
         <v>137534</v>
@@ -9613,10 +9694,10 @@
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C198" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D198" s="43">
         <v>50032</v>
@@ -9624,10 +9705,10 @@
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C199" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D199" s="43">
         <v>40127</v>
@@ -9635,10 +9716,10 @@
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C200" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D200" s="43">
         <v>21738</v>
@@ -9646,10 +9727,10 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C201" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D201" s="43">
         <v>5902</v>
@@ -9657,10 +9738,10 @@
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C202" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D202" s="43">
         <v>21968</v>
@@ -9668,10 +9749,10 @@
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C203" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D203" s="43">
         <v>26079</v>
@@ -9679,10 +9760,10 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C204" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D204" s="43">
         <v>9645</v>
@@ -9690,10 +9771,10 @@
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C205" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D205" s="43">
         <v>6712</v>
@@ -9701,10 +9782,10 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C206" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D206" s="43">
         <v>4176</v>
@@ -9712,10 +9793,10 @@
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C207" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D207" s="43">
         <v>9213</v>
@@ -9723,10 +9804,10 @@
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C208" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D208" s="43">
         <v>15041</v>
@@ -9734,10 +9815,10 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C209" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D209" s="43">
         <v>11419</v>
@@ -9745,10 +9826,10 @@
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C210" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D210" s="43">
         <v>4252</v>
@@ -9756,10 +9837,10 @@
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C211" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D211" s="43">
         <v>4806</v>
@@ -9767,10 +9848,10 @@
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C212" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D212" s="43">
         <v>3237</v>
@@ -9778,10 +9859,10 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C213" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D213" s="43">
         <v>7431</v>
@@ -9789,10 +9870,10 @@
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C214" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D214" s="43">
         <v>17274</v>
@@ -9800,10 +9881,10 @@
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C215" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D215" s="43">
         <v>10328</v>
@@ -9811,10 +9892,10 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C216" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D216" s="43">
         <v>43172</v>
@@ -9822,10 +9903,10 @@
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C217" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D217" s="43">
         <v>36144</v>
@@ -9833,10 +9914,10 @@
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C218" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D218" s="43">
         <v>4994</v>
@@ -9844,10 +9925,10 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C219" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D219" s="43">
         <v>8110</v>
@@ -9855,10 +9936,10 @@
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C220" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D220" s="43">
         <v>5774</v>
@@ -9866,10 +9947,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C221" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D221" s="43">
         <v>8080</v>
@@ -9877,10 +9958,10 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C222" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D222" s="43">
         <v>10355</v>
@@ -9888,10 +9969,10 @@
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C223" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D223" s="43">
         <v>1624</v>
@@ -9899,10 +9980,10 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C224" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D224" s="43">
         <v>3179</v>
@@ -9910,10 +9991,10 @@
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C225" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D225" s="43">
         <v>13946</v>
@@ -9921,10 +10002,10 @@
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C226" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D226" s="43">
         <v>30899</v>
@@ -9932,10 +10013,10 @@
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C227" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D227" s="43">
         <v>22672</v>
@@ -9943,10 +10024,10 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C228" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D228" s="43">
         <v>34308</v>
@@ -9954,10 +10035,10 @@
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C229" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D229" s="43">
         <v>19639</v>
@@ -9965,10 +10046,10 @@
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C230" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D230" s="43">
         <v>10510</v>
@@ -9976,10 +10057,10 @@
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C231" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D231" s="43">
         <v>12012</v>
@@ -9987,10 +10068,10 @@
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C232" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D232" s="43">
         <v>35390</v>
@@ -9998,10 +10079,10 @@
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C233" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D233" s="43">
         <v>9839</v>
@@ -10009,10 +10090,10 @@
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C234" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D234" s="43">
         <v>34461</v>
@@ -10020,10 +10101,10 @@
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C235" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D235" s="43">
         <v>32490</v>
@@ -10031,10 +10112,10 @@
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C236" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D236" s="43">
         <v>35271</v>
@@ -10042,10 +10123,10 @@
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C237" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D237" s="43">
         <v>44820</v>
@@ -10053,10 +10134,10 @@
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C238" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D238" s="43">
         <v>24834</v>
@@ -10064,10 +10145,10 @@
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C239" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D239" s="43">
         <v>42935</v>
@@ -10075,10 +10156,10 @@
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C240" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D240" s="43">
         <v>7409</v>
@@ -10086,10 +10167,10 @@
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C241" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D241" s="43">
         <v>63516</v>
@@ -10097,10 +10178,10 @@
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C242" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D242" s="43">
         <v>151763</v>
@@ -10108,10 +10189,10 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C243" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D243" s="43">
         <v>13437</v>
@@ -10119,10 +10200,10 @@
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C244" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D244" s="43">
         <v>41588</v>
@@ -10130,10 +10211,10 @@
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C245" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D245" s="43">
         <v>28299</v>
@@ -10141,10 +10222,10 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C246" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D246" s="43">
         <v>35923</v>
@@ -10152,10 +10233,10 @@
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C247" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D247" s="43">
         <v>13989</v>
@@ -10163,10 +10244,10 @@
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C248" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D248" s="43">
         <v>10059</v>
@@ -10174,10 +10255,10 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C249" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D249" s="43">
         <v>18967</v>
@@ -10185,10 +10266,10 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C250" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D250" s="43">
         <v>26996</v>
@@ -10196,10 +10277,10 @@
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C251" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D251" s="43">
         <v>47738</v>
@@ -10207,10 +10288,10 @@
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C252" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D252" s="43">
         <v>33801</v>
@@ -10218,10 +10299,10 @@
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C253" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D253" s="43">
         <v>20987</v>
@@ -10229,10 +10310,10 @@
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C254" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D254" s="43">
         <v>17027</v>
@@ -10240,10 +10321,10 @@
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C255" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D255" s="43">
         <v>55533</v>
@@ -10251,10 +10332,10 @@
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C256" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D256" s="43">
         <v>7797</v>
@@ -10262,10 +10343,10 @@
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C257" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D257" s="43">
         <v>13469</v>
@@ -10273,10 +10354,10 @@
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C258" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D258" s="43">
         <v>7913</v>
@@ -10284,10 +10365,10 @@
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C259" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D259" s="43">
         <v>9793</v>
@@ -10295,10 +10376,10 @@
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C260" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D260" s="43">
         <v>4432</v>
@@ -10306,10 +10387,10 @@
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C261" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D261" s="43">
         <v>10139</v>
@@ -10317,10 +10398,10 @@
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C262" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D262" s="43">
         <v>11575</v>
@@ -10328,10 +10409,10 @@
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C263" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D263" s="43">
         <v>7059</v>
@@ -10339,10 +10420,10 @@
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C264" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D264" s="43">
         <v>6202</v>
@@ -10350,10 +10431,10 @@
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C265" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D265" s="43">
         <v>44437</v>
@@ -10361,10 +10442,10 @@
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C266" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D266" s="43">
         <v>29952</v>
@@ -10372,10 +10453,10 @@
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C267" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D267" s="43">
         <v>59159</v>
@@ -10383,10 +10464,10 @@
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C268" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D268" s="43">
         <v>20873</v>
@@ -10394,10 +10475,10 @@
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C269" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D269" s="43">
         <v>6152</v>
@@ -10405,10 +10486,10 @@
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C270" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D270" s="43">
         <v>11383</v>
@@ -10416,10 +10497,10 @@
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C271" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D271" s="43">
         <v>4732</v>
@@ -10427,10 +10508,10 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C272" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D272" s="43">
         <v>78433</v>
@@ -10438,10 +10519,10 @@
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C273" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D273" s="43">
         <v>3763</v>
@@ -10449,10 +10530,10 @@
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C274" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D274" s="43">
         <v>457760</v>
@@ -10460,10 +10541,10 @@
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C275" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D275" s="43">
         <v>13419</v>
@@ -10471,10 +10552,10 @@
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C276" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D276" s="43">
         <v>9115</v>
@@ -10482,10 +10563,10 @@
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C277" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D277" s="43">
         <v>20551</v>
@@ -10493,276 +10574,276 @@
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D278" s="43">
         <v>49895</v>
       </c>
       <c r="E278" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D279" s="43">
         <v>7020</v>
       </c>
       <c r="E279" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D280" s="43">
         <v>6964</v>
       </c>
       <c r="E280" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D281" s="43">
         <v>31879</v>
       </c>
       <c r="E281" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C282" s="44" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D282" s="43">
         <v>117887</v>
       </c>
       <c r="E282" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C283" s="44" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D283" s="43">
         <v>85442</v>
       </c>
       <c r="E283" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C284" s="44" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D284" s="43">
         <v>14641</v>
       </c>
       <c r="E284" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D285" s="43">
         <v>14749</v>
       </c>
       <c r="E285" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C286" s="51" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D286" s="43">
         <v>208145</v>
       </c>
       <c r="E286" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C287" s="51" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D287" s="43">
         <v>15995</v>
       </c>
       <c r="E287" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C288" s="51" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D288" s="43">
         <v>30712</v>
       </c>
       <c r="E288" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C289" s="44" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D289" s="43">
         <v>19911</v>
       </c>
       <c r="E289" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C290" s="44" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D290" s="43">
         <v>15067</v>
       </c>
       <c r="E290" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D291" s="43">
         <v>27773</v>
       </c>
       <c r="E291" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C292" s="44" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D292" s="43">
         <v>12847</v>
       </c>
       <c r="E292" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D293" s="43">
         <v>38140</v>
       </c>
       <c r="E293" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C294" s="44" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D294" s="43">
         <v>42475</v>
       </c>
       <c r="E294" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C295" s="44" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D295" s="43">
         <v>5006</v>
       </c>
       <c r="E295" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C296" s="44" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D296" s="43">
         <v>40978</v>
       </c>
       <c r="E296" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C297" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D297" s="43">
         <v>40444</v>
@@ -10770,10 +10851,10 @@
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C298" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D298" s="43">
         <v>17753</v>
@@ -10781,10 +10862,10 @@
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C299" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D299" s="43">
         <v>3844</v>
@@ -10792,10 +10873,10 @@
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C300" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D300" s="43">
         <v>8354</v>
@@ -10803,10 +10884,10 @@
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C301" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D301" s="43">
         <v>10613</v>
@@ -10814,10 +10895,10 @@
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C302" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D302" s="43">
         <v>11961</v>
@@ -10825,10 +10906,10 @@
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C303" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D303" s="43">
         <v>96787</v>
@@ -10836,10 +10917,10 @@
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C304" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D304" s="43">
         <v>20488</v>
@@ -10847,10 +10928,10 @@
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C305" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D305" s="43">
         <v>5369</v>
@@ -10858,10 +10939,10 @@
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C306" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D306" s="43">
         <v>17928</v>
@@ -10869,10 +10950,10 @@
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C307" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D307" s="43">
         <v>124484</v>
@@ -10880,10 +10961,10 @@
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C308" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D308" s="43">
         <v>219053</v>
@@ -10891,10 +10972,10 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C309" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D309" s="43">
         <v>171121</v>
@@ -10902,10 +10983,10 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C310" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D310" s="43">
         <v>179070</v>
@@ -10913,10 +10994,10 @@
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C311" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D311" s="43">
         <v>242634</v>
@@ -10924,10 +11005,10 @@
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C312" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D312" s="43">
         <v>176440</v>
@@ -10935,10 +11016,10 @@
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C313" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D313" s="43">
         <v>148392</v>
@@ -10946,10 +11027,10 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C314" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D314" s="43">
         <v>146367</v>
@@ -10957,10 +11038,10 @@
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C315" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D315" s="43">
         <v>322061</v>
@@ -10968,10 +11049,10 @@
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C316" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D316" s="43">
         <v>83011</v>
@@ -10979,10 +11060,10 @@
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C317" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D317" s="43">
         <v>38123</v>
@@ -10990,10 +11071,10 @@
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C318" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D318" s="43">
         <v>279078</v>
@@ -11001,10 +11082,10 @@
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C319" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D319" s="43">
         <v>227964</v>
@@ -11012,10 +11093,10 @@
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C320" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D320" s="43">
         <v>230215</v>
@@ -11023,10 +11104,10 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C321" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D321" s="43">
         <v>140227</v>
@@ -11034,10 +11115,10 @@
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C322" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D322" s="43">
         <v>101522</v>
@@ -11045,10 +11126,10 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C323" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D323" s="43">
         <v>92474</v>
@@ -11056,10 +11137,10 @@
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C324" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D324" s="43">
         <v>137915</v>
@@ -11067,10 +11148,10 @@
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C325" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D325" s="43">
         <v>229646</v>
@@ -11078,10 +11159,10 @@
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C326" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D326" s="43">
         <v>57722</v>
@@ -11089,10 +11170,10 @@
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C327" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D327" s="43">
         <v>35581</v>
@@ -11100,10 +11181,10 @@
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C328" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D328" s="43">
         <v>43933</v>
@@ -11111,10 +11192,10 @@
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C329" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D329" s="43">
         <v>68922</v>
@@ -11122,10 +11203,10 @@
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C330" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D330" s="43">
         <v>211318</v>
@@ -11133,10 +11214,10 @@
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C331" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D331" s="43">
         <v>82025</v>
@@ -11144,10 +11225,10 @@
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C332" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D332" s="43">
         <v>47194</v>
@@ -11155,10 +11236,10 @@
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C333" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D333" s="43">
         <v>332550</v>
@@ -11166,10 +11247,10 @@
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C334" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D334" s="43">
         <v>65769</v>
@@ -11177,10 +11258,10 @@
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C335" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D335" s="43">
         <v>43699</v>
@@ -11188,10 +11269,10 @@
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C336" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D336" s="43">
         <v>137453</v>
@@ -11199,10 +11280,10 @@
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C337" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D337" s="43">
         <v>80430</v>
@@ -11210,10 +11291,10 @@
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C338" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D338" s="43">
         <v>120074</v>
@@ -11221,10 +11302,10 @@
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C339" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D339" s="43">
         <v>27110</v>
@@ -11232,10 +11313,10 @@
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C340" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D340" s="43">
         <v>29340</v>
@@ -11243,10 +11324,10 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C341" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D341" s="43">
         <v>38375</v>
@@ -11254,10 +11335,10 @@
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C342" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D342" s="43">
         <v>14438</v>
@@ -11265,10 +11346,10 @@
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C343" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D343" s="43">
         <v>212383</v>
@@ -11276,10 +11357,10 @@
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C344" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D344" s="43">
         <v>126697</v>
@@ -11287,10 +11368,10 @@
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C345" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D345" s="43">
         <v>16643</v>
@@ -11298,10 +11379,10 @@
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C346" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D346" s="43">
         <v>83920</v>
@@ -11309,10 +11390,10 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C347" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D347" s="43">
         <v>97373</v>
@@ -11320,10 +11401,10 @@
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C348" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D348" s="43">
         <v>334092</v>
@@ -11331,10 +11412,10 @@
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C349" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D349" s="43">
         <v>261627</v>
@@ -11342,10 +11423,10 @@
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C350" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D350" s="43">
         <v>45066</v>
@@ -11353,10 +11434,10 @@
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C351" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D351" s="43">
         <v>148620</v>
@@ -11364,10 +11445,10 @@
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C352" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D352" s="43">
         <v>132937</v>
@@ -11375,10 +11456,10 @@
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C353" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D353" s="43">
         <v>9245</v>
@@ -11386,10 +11467,10 @@
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C354" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D354" s="43">
         <v>296293</v>
@@ -11397,10 +11478,10 @@
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C355" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D355" s="43">
         <v>520425</v>
@@ -11408,10 +11489,10 @@
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C356" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D356" s="43">
         <v>349439</v>
@@ -11419,10 +11500,10 @@
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C357" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D357" s="43">
         <v>218793</v>
@@ -11430,10 +11511,10 @@
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C358" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D358" s="43">
         <v>88034</v>
@@ -11441,10 +11522,10 @@
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C359" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D359" s="43">
         <v>586732</v>
@@ -11452,10 +11533,10 @@
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C360" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D360" s="43">
         <v>344723</v>
@@ -11463,10 +11544,10 @@
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C361" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D361" s="43">
         <v>163544</v>
@@ -11474,10 +11555,10 @@
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C362" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D362" s="43">
         <v>1416584</v>
@@ -11485,10 +11566,10 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C363" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D363" s="43">
         <v>530391</v>
@@ -11496,10 +11577,10 @@
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C364" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D364" s="43">
         <v>1123901</v>
@@ -11507,10 +11588,10 @@
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C365" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D365" s="43">
         <v>61256</v>
@@ -11518,10 +11599,10 @@
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C366" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D366" s="43">
         <v>77621</v>
@@ -11529,10 +11610,10 @@
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C367" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D367" s="43">
         <v>29242</v>
@@ -11540,10 +11621,10 @@
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C368" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D368" s="43">
         <v>161188</v>
@@ -11551,10 +11632,10 @@
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C369" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D369" s="43">
         <v>331383</v>
@@ -11562,10 +11643,10 @@
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C370" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D370" s="43">
         <v>155017</v>
@@ -11573,10 +11654,10 @@
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C371" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D371" s="43">
         <v>163308</v>
@@ -11584,10 +11665,10 @@
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C372" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D372" s="43">
         <v>63364</v>
@@ -11595,10 +11676,10 @@
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C373" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D373" s="43">
         <v>193482</v>
@@ -11606,10 +11687,10 @@
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C374" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D374" s="43">
         <v>311584</v>
@@ -11617,10 +11698,10 @@
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C375" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D375" s="43">
         <v>232966</v>
@@ -11628,10 +11709,10 @@
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C376" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D376" s="43">
         <v>49844</v>
@@ -11639,10 +11720,10 @@
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C377" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D377" s="43">
         <v>202086</v>
@@ -11650,10 +11731,10 @@
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C378" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D378" s="43">
         <v>125875</v>
@@ -11661,10 +11742,10 @@
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C379" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D379" s="43">
         <v>33044</v>
@@ -11672,10 +11753,10 @@
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C380" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D380" s="43">
         <v>11848</v>
@@ -11683,10 +11764,10 @@
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C381" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D381" s="43">
         <v>36577</v>
@@ -11694,10 +11775,10 @@
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C382" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D382" s="43">
         <v>88795</v>
@@ -11705,10 +11786,10 @@
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C383" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D383" s="43">
         <v>561730</v>
@@ -11716,10 +11797,10 @@
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C384" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D384" s="43">
         <v>330772</v>
@@ -11727,10 +11808,10 @@
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C385" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D385" s="43">
         <v>171767</v>
@@ -11738,10 +11819,10 @@
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C386" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D386" s="43">
         <v>56592</v>
@@ -11749,10 +11830,10 @@
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C387" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D387" s="43">
         <v>28243</v>
@@ -11760,10 +11841,10 @@
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C388" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D388" s="43">
         <v>71905</v>
@@ -11771,10 +11852,10 @@
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C389" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D389" s="43">
         <v>44806</v>
@@ -11782,10 +11863,10 @@
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C390" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D390" s="43">
         <v>56610</v>
@@ -11793,10 +11874,10 @@
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C391" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D391" s="43">
         <v>47162</v>
@@ -11804,24 +11885,24 @@
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C392" s="49" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D392" s="43">
         <v>89811</v>
       </c>
       <c r="E392" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C393" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D393" s="43">
         <v>43618</v>
@@ -11829,10 +11910,10 @@
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C394" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D394" s="43">
         <v>225344</v>
@@ -11840,10 +11921,10 @@
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C395" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D395" s="43">
         <v>72133</v>
@@ -11851,10 +11932,10 @@
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C396" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D396" s="43">
         <v>465471</v>
@@ -11862,10 +11943,10 @@
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C397" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D397" s="43">
         <v>116720</v>
@@ -11873,10 +11954,10 @@
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C398" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D398" s="43">
         <v>99000</v>
@@ -11884,10 +11965,10 @@
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C399" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D399" s="43">
         <v>110970</v>
@@ -11895,10 +11976,10 @@
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C400" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D400" s="43">
         <v>53964</v>
@@ -11906,10 +11987,10 @@
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C401" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D401" s="43">
         <v>75155</v>
@@ -11917,10 +11998,10 @@
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C402" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D402" s="43">
         <v>35396</v>
@@ -11928,10 +12009,10 @@
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C403" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D403" s="43">
         <v>813054</v>
@@ -11939,10 +12020,10 @@
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C404" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D404" s="43">
         <v>184319</v>
@@ -11950,10 +12031,10 @@
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C405" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D405" s="43">
         <v>46401</v>
@@ -11961,10 +12042,10 @@
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C406" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D406" s="43">
         <v>93433</v>
@@ -11972,10 +12053,10 @@
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C407" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D407" s="43">
         <v>48681</v>
@@ -11983,10 +12064,10 @@
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C408" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D408" s="43">
         <v>45458</v>
@@ -11994,10 +12075,10 @@
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C409" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D409" s="43">
         <v>22884</v>
@@ -12005,10 +12086,10 @@
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C410" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D410" s="43">
         <v>45096</v>
@@ -12016,10 +12097,10 @@
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C411" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D411" s="43">
         <v>41997</v>
@@ -12027,10 +12108,10 @@
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C412" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D412" s="43">
         <v>44265</v>
@@ -12038,10 +12119,10 @@
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C413" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D413" s="43">
         <v>14730</v>
@@ -12049,10 +12130,10 @@
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C414" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D414" s="43">
         <v>18301</v>
@@ -12060,10 +12141,10 @@
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C415" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D415" s="43">
         <v>35926</v>
@@ -12071,10 +12152,10 @@
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C416" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D416" s="43">
         <v>81758</v>
@@ -12082,10 +12163,10 @@
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C417" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D417" s="43">
         <v>258628</v>
@@ -12093,10 +12174,10 @@
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C418" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D418" s="43">
         <v>336211</v>
@@ -12104,10 +12185,10 @@
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C419" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D419" s="43">
         <v>303694</v>
@@ -12115,10 +12196,10 @@
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C420" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D420" s="43">
         <v>98573</v>
@@ -12126,10 +12207,10 @@
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C421" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D421" s="43">
         <v>120747</v>
@@ -12137,10 +12218,10 @@
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C422" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D422" s="43">
         <v>22166</v>
@@ -12148,10 +12229,10 @@
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C423" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D423" s="43">
         <v>37604</v>
@@ -12159,10 +12240,10 @@
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C424" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D424" s="43">
         <v>22329</v>
@@ -12170,10 +12251,10 @@
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C425" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D425" s="43">
         <v>80111</v>
@@ -12181,10 +12262,10 @@
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C426" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D426" s="43">
         <v>20088</v>
@@ -12192,10 +12273,10 @@
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C427" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D427" s="43">
         <v>28962</v>
@@ -12203,10 +12284,10 @@
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C428" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D428" s="43">
         <v>62899</v>
@@ -12214,10 +12295,10 @@
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C429" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D429" s="43">
         <v>93020</v>
@@ -12225,10 +12306,10 @@
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C430" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D430" s="43">
         <v>57520</v>
@@ -12236,10 +12317,10 @@
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C431" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D431" s="43">
         <v>75682</v>
@@ -12247,10 +12328,10 @@
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C432" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D432" s="43">
         <v>21314</v>
@@ -12258,10 +12339,10 @@
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C433" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D433" s="43">
         <v>613306</v>
@@ -12269,10 +12350,10 @@
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C434" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D434" s="43">
         <v>390322</v>
@@ -12280,10 +12361,10 @@
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C435" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D435" s="43">
         <v>62768</v>
@@ -12291,10 +12372,10 @@
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C436" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D436" s="43">
         <v>13843</v>
@@ -12302,10 +12383,10 @@
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C437" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D437" s="43">
         <v>17451</v>
@@ -12313,10 +12394,10 @@
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C438" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D438" s="43">
         <v>974593</v>
@@ -12324,10 +12405,10 @@
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C439" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D439" s="43">
         <v>286138</v>
@@ -12335,10 +12416,10 @@
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C440" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D440" s="43">
         <v>879668</v>
@@ -12346,10 +12427,10 @@
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C441" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D441" s="43">
         <v>16399</v>
@@ -12357,10 +12438,10 @@
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C442" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D442" s="43">
         <v>62898</v>
@@ -12368,10 +12449,10 @@
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C443" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D443" s="43">
         <v>248131</v>
@@ -12413,78 +12494,78 @@
     <row r="1" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F1" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="58" t="s">
+      <c r="J1" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="L1" s="59" t="s">
         <v>155</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>1113</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="54">
         <f>'U.S. Data for ISIC Splits'!D10/SUM('U.S. Data for ISIC Splits'!$D10:$E10)</f>
@@ -12533,7 +12614,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="54">
         <f>'U.S. Data for ISIC Splits'!D11/SUM('U.S. Data for ISIC Splits'!$D11:$E11)</f>
@@ -12582,7 +12663,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="56">
         <f>'U.S. Data for ISIC Splits'!D12/SUM('U.S. Data for ISIC Splits'!$D12:$E12)</f>
@@ -12642,7 +12723,9 @@
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12661,10 +12744,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -12688,25 +12771,25 @@
         <v>17</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="P1" s="69" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q1" s="68" t="s">
         <v>1114</v>
       </c>
-      <c r="Q1" s="68" t="s">
-        <v>1118</v>
-      </c>
       <c r="R1" s="69" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>19</v>
@@ -12730,13 +12813,13 @@
         <v>25</v>
       </c>
       <c r="Z1" s="68" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AA1" s="73" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AB1" s="69" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>26</v>
@@ -12786,7 +12869,7 @@
     </row>
     <row r="2" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="16">
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
